--- a/natmiOut/OldD2/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.32472518097566</v>
+        <v>1.34382</v>
       </c>
       <c r="H2">
-        <v>1.32472518097566</v>
+        <v>2.68764</v>
       </c>
       <c r="I2">
-        <v>0.04019742228710087</v>
+        <v>0.0389481852943593</v>
       </c>
       <c r="J2">
-        <v>0.04019742228710087</v>
+        <v>0.02663200686159342</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.730755545445945</v>
+        <v>0.752908</v>
       </c>
       <c r="N2">
-        <v>0.730755545445945</v>
+        <v>1.505816</v>
       </c>
       <c r="O2">
-        <v>0.04365022167374741</v>
+        <v>0.04239205579776523</v>
       </c>
       <c r="P2">
-        <v>0.04365022167374741</v>
+        <v>0.03064402855818915</v>
       </c>
       <c r="Q2">
-        <v>0.9680502721898466</v>
+        <v>1.01177282856</v>
       </c>
       <c r="R2">
-        <v>0.9680502721898466</v>
+        <v>4.04709131424</v>
       </c>
       <c r="S2">
-        <v>0.001754626393545188</v>
+        <v>0.001651093644220178</v>
       </c>
       <c r="T2">
-        <v>0.001754626393545188</v>
+        <v>0.0008161119788285583</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.32472518097566</v>
+        <v>1.34382</v>
       </c>
       <c r="H3">
-        <v>1.32472518097566</v>
+        <v>2.68764</v>
       </c>
       <c r="I3">
-        <v>0.04019742228710087</v>
+        <v>0.0389481852943593</v>
       </c>
       <c r="J3">
-        <v>0.04019742228710087</v>
+        <v>0.02663200686159342</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.4152465057489</v>
+        <v>12.18022033333333</v>
       </c>
       <c r="N3">
-        <v>11.4152465057489</v>
+        <v>36.540661</v>
       </c>
       <c r="O3">
-        <v>0.6818669301131814</v>
+        <v>0.6858003633906682</v>
       </c>
       <c r="P3">
-        <v>0.6818669301131814</v>
+        <v>0.743618781590253</v>
       </c>
       <c r="Q3">
-        <v>15.12206449320998</v>
+        <v>16.36802368834</v>
       </c>
       <c r="R3">
-        <v>15.12206449320998</v>
+        <v>98.20814213004</v>
       </c>
       <c r="S3">
-        <v>0.02740929293336865</v>
+        <v>0.02671067962827868</v>
       </c>
       <c r="T3">
-        <v>0.02740929293336865</v>
+        <v>0.01980406049372136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.32472518097566</v>
+        <v>1.34382</v>
       </c>
       <c r="H4">
-        <v>1.32472518097566</v>
+        <v>2.68764</v>
       </c>
       <c r="I4">
-        <v>0.04019742228710087</v>
+        <v>0.0389481852943593</v>
       </c>
       <c r="J4">
-        <v>0.04019742228710087</v>
+        <v>0.02663200686159342</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.386418495028439</v>
+        <v>0.4715666666666666</v>
       </c>
       <c r="N4">
-        <v>0.386418495028439</v>
+        <v>1.4147</v>
       </c>
       <c r="O4">
-        <v>0.02308193632185706</v>
+        <v>0.02655129238326527</v>
       </c>
       <c r="P4">
-        <v>0.02308193632185706</v>
+        <v>0.02878977723790303</v>
       </c>
       <c r="Q4">
-        <v>0.511898310758891</v>
+        <v>0.6337007179999999</v>
       </c>
       <c r="R4">
-        <v>0.511898310758891</v>
+        <v>3.802204307999999</v>
       </c>
       <c r="S4">
-        <v>0.00092783434153366</v>
+        <v>0.001034124655548126</v>
       </c>
       <c r="T4">
-        <v>0.00092783434153366</v>
+        <v>0.0007667295449435796</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.32472518097566</v>
+        <v>1.34382</v>
       </c>
       <c r="H5">
-        <v>1.32472518097566</v>
+        <v>2.68764</v>
       </c>
       <c r="I5">
-        <v>0.04019742228710087</v>
+        <v>0.0389481852943593</v>
       </c>
       <c r="J5">
-        <v>0.04019742228710087</v>
+        <v>0.02663200686159342</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.326020932026005</v>
+        <v>0.3304726666666666</v>
       </c>
       <c r="N5">
-        <v>0.326020932026005</v>
+        <v>0.9914179999999999</v>
       </c>
       <c r="O5">
-        <v>0.01947420863502641</v>
+        <v>0.01860707513397334</v>
       </c>
       <c r="P5">
-        <v>0.01947420863502641</v>
+        <v>0.02017579937064207</v>
       </c>
       <c r="Q5">
-        <v>0.4318881381800028</v>
+        <v>0.44409577892</v>
       </c>
       <c r="R5">
-        <v>0.4318881381800028</v>
+        <v>2.66457467352</v>
       </c>
       <c r="S5">
-        <v>0.0007828129882092627</v>
+        <v>0.000724711810104059</v>
       </c>
       <c r="T5">
-        <v>0.0007828129882092627</v>
+        <v>0.000537322027277072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.32472518097566</v>
+        <v>1.34382</v>
       </c>
       <c r="H6">
-        <v>1.32472518097566</v>
+        <v>2.68764</v>
       </c>
       <c r="I6">
-        <v>0.04019742228710087</v>
+        <v>0.0389481852943593</v>
       </c>
       <c r="J6">
-        <v>0.04019742228710087</v>
+        <v>0.02663200686159342</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.590544002639307</v>
+        <v>0.6355266666666667</v>
       </c>
       <c r="N6">
-        <v>0.590544002639307</v>
+        <v>1.90658</v>
       </c>
       <c r="O6">
-        <v>0.03527496545726126</v>
+        <v>0.03578296672940263</v>
       </c>
       <c r="P6">
-        <v>0.03527496545726126</v>
+        <v>0.03879975506202103</v>
       </c>
       <c r="Q6">
-        <v>0.7823085107704465</v>
+        <v>0.8540334452</v>
       </c>
       <c r="R6">
-        <v>0.7823085107704465</v>
+        <v>5.1242006712</v>
       </c>
       <c r="S6">
-        <v>0.001417962682648427</v>
+        <v>0.001393681618558668</v>
       </c>
       <c r="T6">
-        <v>0.001417962682648427</v>
+        <v>0.001033315343039888</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.32472518097566</v>
+        <v>1.34382</v>
       </c>
       <c r="H7">
-        <v>1.32472518097566</v>
+        <v>2.68764</v>
       </c>
       <c r="I7">
-        <v>0.04019742228710087</v>
+        <v>0.0389481852943593</v>
       </c>
       <c r="J7">
-        <v>0.04019742228710087</v>
+        <v>0.02663200686159342</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.29217910947233</v>
+        <v>3.3898975</v>
       </c>
       <c r="N7">
-        <v>3.29217910947233</v>
+        <v>6.779795</v>
       </c>
       <c r="O7">
-        <v>0.1966517377989265</v>
+        <v>0.1908662465649254</v>
       </c>
       <c r="P7">
-        <v>0.1966517377989265</v>
+        <v>0.1379718581809916</v>
       </c>
       <c r="Q7">
-        <v>4.36123256660002</v>
+        <v>4.55541205845</v>
       </c>
       <c r="R7">
-        <v>4.36123256660002</v>
+        <v>18.2216482338</v>
       </c>
       <c r="S7">
-        <v>0.007904892947795686</v>
+        <v>0.007433893937649583</v>
       </c>
       <c r="T7">
-        <v>0.007904892947795686</v>
+        <v>0.003674467473782962</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.5871543955302</v>
+        <v>31.76379</v>
       </c>
       <c r="H8">
-        <v>30.5871543955302</v>
+        <v>95.29137</v>
       </c>
       <c r="I8">
-        <v>0.9281357216236624</v>
+        <v>0.9206158403440319</v>
       </c>
       <c r="J8">
-        <v>0.9281357216236624</v>
+        <v>0.9442486418161055</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.730755545445945</v>
+        <v>0.752908</v>
       </c>
       <c r="N8">
-        <v>0.730755545445945</v>
+        <v>1.505816</v>
       </c>
       <c r="O8">
-        <v>0.04365022167374741</v>
+        <v>0.04239205579776523</v>
       </c>
       <c r="P8">
-        <v>0.04365022167374741</v>
+        <v>0.03064402855818915</v>
       </c>
       <c r="Q8">
-        <v>22.35173269394501</v>
+        <v>23.91521160132</v>
       </c>
       <c r="R8">
-        <v>22.35173269394501</v>
+        <v>143.49126960792</v>
       </c>
       <c r="S8">
-        <v>0.04051332999219638</v>
+        <v>0.03902679807217072</v>
       </c>
       <c r="T8">
-        <v>0.04051332999219638</v>
+        <v>0.02893558234584405</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.5871543955302</v>
+        <v>31.76379</v>
       </c>
       <c r="H9">
-        <v>30.5871543955302</v>
+        <v>95.29137</v>
       </c>
       <c r="I9">
-        <v>0.9281357216236624</v>
+        <v>0.9206158403440319</v>
       </c>
       <c r="J9">
-        <v>0.9281357216236624</v>
+        <v>0.9442486418161055</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.4152465057489</v>
+        <v>12.18022033333333</v>
       </c>
       <c r="N9">
-        <v>11.4152465057489</v>
+        <v>36.540661</v>
       </c>
       <c r="O9">
-        <v>0.6818669301131814</v>
+        <v>0.6858003633906682</v>
       </c>
       <c r="P9">
-        <v>0.6818669301131814</v>
+        <v>0.743618781590253</v>
       </c>
       <c r="Q9">
-        <v>349.1599073343782</v>
+        <v>386.88996082173</v>
       </c>
       <c r="R9">
-        <v>349.1599073343782</v>
+        <v>3482.00964739557</v>
       </c>
       <c r="S9">
-        <v>0.6328650552319091</v>
+        <v>0.6313586778511424</v>
       </c>
       <c r="T9">
-        <v>0.6328650552319091</v>
+        <v>0.7021610245455435</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.5871543955302</v>
+        <v>31.76379</v>
       </c>
       <c r="H10">
-        <v>30.5871543955302</v>
+        <v>95.29137</v>
       </c>
       <c r="I10">
-        <v>0.9281357216236624</v>
+        <v>0.9206158403440319</v>
       </c>
       <c r="J10">
-        <v>0.9281357216236624</v>
+        <v>0.9442486418161055</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.386418495028439</v>
+        <v>0.4715666666666666</v>
       </c>
       <c r="N10">
-        <v>0.386418495028439</v>
+        <v>1.4147</v>
       </c>
       <c r="O10">
-        <v>0.02308193632185706</v>
+        <v>0.02655129238326527</v>
       </c>
       <c r="P10">
-        <v>0.02308193632185706</v>
+        <v>0.02878977723790303</v>
       </c>
       <c r="Q10">
-        <v>11.81944216872328</v>
+        <v>14.978744571</v>
       </c>
       <c r="R10">
-        <v>11.81944216872328</v>
+        <v>134.808701139</v>
       </c>
       <c r="S10">
-        <v>0.02142316962455822</v>
+        <v>0.02444354034963985</v>
       </c>
       <c r="T10">
-        <v>0.02142316962455822</v>
+        <v>0.02718470805507816</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.5871543955302</v>
+        <v>31.76379</v>
       </c>
       <c r="H11">
-        <v>30.5871543955302</v>
+        <v>95.29137</v>
       </c>
       <c r="I11">
-        <v>0.9281357216236624</v>
+        <v>0.9206158403440319</v>
       </c>
       <c r="J11">
-        <v>0.9281357216236624</v>
+        <v>0.9442486418161055</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.326020932026005</v>
+        <v>0.3304726666666666</v>
       </c>
       <c r="N11">
-        <v>0.326020932026005</v>
+        <v>0.9914179999999999</v>
       </c>
       <c r="O11">
-        <v>0.01947420863502641</v>
+        <v>0.01860707513397334</v>
       </c>
       <c r="P11">
-        <v>0.01947420863502641</v>
+        <v>0.02017579937064207</v>
       </c>
       <c r="Q11">
-        <v>9.972052584054072</v>
+        <v>10.49706438474</v>
       </c>
       <c r="R11">
-        <v>9.972052584054072</v>
+        <v>94.47357946266</v>
       </c>
       <c r="S11">
-        <v>0.01807470868451999</v>
+        <v>0.01712996811080741</v>
       </c>
       <c r="T11">
-        <v>0.01807470868451999</v>
+        <v>0.01905097115328301</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.5871543955302</v>
+        <v>31.76379</v>
       </c>
       <c r="H12">
-        <v>30.5871543955302</v>
+        <v>95.29137</v>
       </c>
       <c r="I12">
-        <v>0.9281357216236624</v>
+        <v>0.9206158403440319</v>
       </c>
       <c r="J12">
-        <v>0.9281357216236624</v>
+        <v>0.9442486418161055</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.590544002639307</v>
+        <v>0.6355266666666667</v>
       </c>
       <c r="N12">
-        <v>0.590544002639307</v>
+        <v>1.90658</v>
       </c>
       <c r="O12">
-        <v>0.03527496545726126</v>
+        <v>0.03578296672940263</v>
       </c>
       <c r="P12">
-        <v>0.03527496545726126</v>
+        <v>0.03879975506202103</v>
       </c>
       <c r="Q12">
-        <v>18.06306058608288</v>
+        <v>20.1867355794</v>
       </c>
       <c r="R12">
-        <v>18.06306058608288</v>
+        <v>181.6806202146</v>
       </c>
       <c r="S12">
-        <v>0.03273995551992494</v>
+        <v>0.03294236598559153</v>
       </c>
       <c r="T12">
-        <v>0.03273995551992494</v>
+        <v>0.03663661602011092</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.5871543955302</v>
+        <v>31.76379</v>
       </c>
       <c r="H13">
-        <v>30.5871543955302</v>
+        <v>95.29137</v>
       </c>
       <c r="I13">
-        <v>0.9281357216236624</v>
+        <v>0.9206158403440319</v>
       </c>
       <c r="J13">
-        <v>0.9281357216236624</v>
+        <v>0.9442486418161055</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.29217910947233</v>
+        <v>3.3898975</v>
       </c>
       <c r="N13">
-        <v>3.29217910947233</v>
+        <v>6.779795</v>
       </c>
       <c r="O13">
-        <v>0.1966517377989265</v>
+        <v>0.1908662465649254</v>
       </c>
       <c r="P13">
-        <v>0.1966517377989265</v>
+        <v>0.1379718581809916</v>
       </c>
       <c r="Q13">
-        <v>100.6983907191693</v>
+        <v>107.675992311525</v>
       </c>
       <c r="R13">
-        <v>100.6983907191693</v>
+        <v>646.05595386915</v>
       </c>
       <c r="S13">
-        <v>0.1825195025705539</v>
+        <v>0.1757144899746799</v>
       </c>
       <c r="T13">
-        <v>0.1825195025705539</v>
+        <v>0.1302797396962456</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.04359631232388</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H14">
-        <v>1.04359631232388</v>
+        <v>0.260443</v>
       </c>
       <c r="I14">
-        <v>0.03166685608923667</v>
+        <v>0.002516155988802771</v>
       </c>
       <c r="J14">
-        <v>0.03166685608923667</v>
+        <v>0.002580747333368299</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.730755545445945</v>
+        <v>0.752908</v>
       </c>
       <c r="N14">
-        <v>0.730755545445945</v>
+        <v>1.505816</v>
       </c>
       <c r="O14">
-        <v>0.04365022167374741</v>
+        <v>0.04239205579776523</v>
       </c>
       <c r="P14">
-        <v>0.04365022167374741</v>
+        <v>0.03064402855818915</v>
       </c>
       <c r="Q14">
-        <v>0.7626137924376137</v>
+        <v>0.06536320608133334</v>
       </c>
       <c r="R14">
-        <v>0.7626137924376137</v>
+        <v>0.392179236488</v>
       </c>
       <c r="S14">
-        <v>0.001382265288005839</v>
+        <v>0.0001066650250732082</v>
       </c>
       <c r="T14">
-        <v>0.001382265288005839</v>
+        <v>7.908449498520864E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.04359631232388</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H15">
-        <v>1.04359631232388</v>
+        <v>0.260443</v>
       </c>
       <c r="I15">
-        <v>0.03166685608923667</v>
+        <v>0.002516155988802771</v>
       </c>
       <c r="J15">
-        <v>0.03166685608923667</v>
+        <v>0.002580747333368299</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.4152465057489</v>
+        <v>12.18022033333333</v>
       </c>
       <c r="N15">
-        <v>11.4152465057489</v>
+        <v>36.540661</v>
       </c>
       <c r="O15">
-        <v>0.6818669301131814</v>
+        <v>0.6858003633906682</v>
       </c>
       <c r="P15">
-        <v>0.6818669301131814</v>
+        <v>0.743618781590253</v>
       </c>
       <c r="Q15">
-        <v>11.91290915766761</v>
+        <v>1.057417708091444</v>
       </c>
       <c r="R15">
-        <v>11.91290915766761</v>
+        <v>9.516759372823</v>
       </c>
       <c r="S15">
-        <v>0.02159258194790371</v>
+        <v>0.001725580691468546</v>
       </c>
       <c r="T15">
-        <v>0.02159258194790371</v>
+        <v>0.001919092187631629</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.04359631232388</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H16">
-        <v>1.04359631232388</v>
+        <v>0.260443</v>
       </c>
       <c r="I16">
-        <v>0.03166685608923667</v>
+        <v>0.002516155988802771</v>
       </c>
       <c r="J16">
-        <v>0.03166685608923667</v>
+        <v>0.002580747333368299</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.386418495028439</v>
+        <v>0.4715666666666666</v>
       </c>
       <c r="N16">
-        <v>0.386418495028439</v>
+        <v>1.4147</v>
       </c>
       <c r="O16">
-        <v>0.02308193632185706</v>
+        <v>0.02655129238326527</v>
       </c>
       <c r="P16">
-        <v>0.02308193632185706</v>
+        <v>0.02878977723790303</v>
       </c>
       <c r="Q16">
-        <v>0.4032649164254225</v>
+        <v>0.04093874578888888</v>
       </c>
       <c r="R16">
-        <v>0.4032649164254225</v>
+        <v>0.3684487120999999</v>
       </c>
       <c r="S16">
-        <v>0.0007309323557651721</v>
+        <v>6.68071933406063E-05</v>
       </c>
       <c r="T16">
-        <v>0.0007309323557651721</v>
+        <v>7.429914083498559E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.04359631232388</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H17">
-        <v>1.04359631232388</v>
+        <v>0.260443</v>
       </c>
       <c r="I17">
-        <v>0.03166685608923667</v>
+        <v>0.002516155988802771</v>
       </c>
       <c r="J17">
-        <v>0.03166685608923667</v>
+        <v>0.002580747333368299</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.326020932026005</v>
+        <v>0.3304726666666666</v>
       </c>
       <c r="N17">
-        <v>0.326020932026005</v>
+        <v>0.9914179999999999</v>
       </c>
       <c r="O17">
-        <v>0.01947420863502641</v>
+        <v>0.01860707513397334</v>
       </c>
       <c r="P17">
-        <v>0.01947420863502641</v>
+        <v>0.02017579937064207</v>
       </c>
       <c r="Q17">
-        <v>0.3402342424027332</v>
+        <v>0.02868976424155555</v>
       </c>
       <c r="R17">
-        <v>0.3402342424027332</v>
+        <v>0.258207878174</v>
       </c>
       <c r="S17">
-        <v>0.0006166869622971512</v>
+        <v>4.681830353245014E-05</v>
       </c>
       <c r="T17">
-        <v>0.0006166869622971512</v>
+        <v>5.206864042435834E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.04359631232388</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H18">
-        <v>1.04359631232388</v>
+        <v>0.260443</v>
       </c>
       <c r="I18">
-        <v>0.03166685608923667</v>
+        <v>0.002516155988802771</v>
       </c>
       <c r="J18">
-        <v>0.03166685608923667</v>
+        <v>0.002580747333368299</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.590544002639307</v>
+        <v>0.6355266666666667</v>
       </c>
       <c r="N18">
-        <v>0.590544002639307</v>
+        <v>1.90658</v>
       </c>
       <c r="O18">
-        <v>0.03527496545726126</v>
+        <v>0.03578296672940263</v>
       </c>
       <c r="P18">
-        <v>0.03527496545726126</v>
+        <v>0.03879975506202103</v>
       </c>
       <c r="Q18">
-        <v>0.6162895434193645</v>
+        <v>0.05517282388222222</v>
       </c>
       <c r="R18">
-        <v>0.6162895434193645</v>
+        <v>0.4965554149399999</v>
       </c>
       <c r="S18">
-        <v>0.001117047254687887</v>
+        <v>9.003552603331672E-05</v>
       </c>
       <c r="T18">
-        <v>0.001117047254687887</v>
+        <v>0.0001001323644116539</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.08681433333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.260443</v>
+      </c>
+      <c r="I19">
+        <v>0.002516155988802771</v>
+      </c>
+      <c r="J19">
+        <v>0.002580747333368299</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.3898975</v>
+      </c>
+      <c r="N19">
+        <v>6.779795</v>
+      </c>
+      <c r="O19">
+        <v>0.1908662465649254</v>
+      </c>
+      <c r="P19">
+        <v>0.1379718581809916</v>
+      </c>
+      <c r="Q19">
+        <v>0.2942916915308333</v>
+      </c>
+      <c r="R19">
+        <v>1.765750149185</v>
+      </c>
+      <c r="S19">
+        <v>0.0004802492493546433</v>
+      </c>
+      <c r="T19">
+        <v>0.0003560705050804631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.061537</v>
+      </c>
+      <c r="H20">
+        <v>0.184611</v>
+      </c>
+      <c r="I20">
+        <v>0.001783538329879737</v>
+      </c>
+      <c r="J20">
+        <v>0.001829322907355756</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.752908</v>
+      </c>
+      <c r="N20">
+        <v>1.505816</v>
+      </c>
+      <c r="O20">
+        <v>0.04239205579776523</v>
+      </c>
+      <c r="P20">
+        <v>0.03064402855818915</v>
+      </c>
+      <c r="Q20">
+        <v>0.046331699596</v>
+      </c>
+      <c r="R20">
+        <v>0.277990197576</v>
+      </c>
+      <c r="S20">
+        <v>7.560785639771482E-05</v>
+      </c>
+      <c r="T20">
+        <v>5.605782341515938E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.061537</v>
+      </c>
+      <c r="H21">
+        <v>0.184611</v>
+      </c>
+      <c r="I21">
+        <v>0.001783538329879737</v>
+      </c>
+      <c r="J21">
+        <v>0.001829322907355756</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.18022033333333</v>
+      </c>
+      <c r="N21">
+        <v>36.540661</v>
+      </c>
+      <c r="O21">
+        <v>0.6858003633906682</v>
+      </c>
+      <c r="P21">
+        <v>0.743618781590253</v>
+      </c>
+      <c r="Q21">
+        <v>0.7495342186523333</v>
+      </c>
+      <c r="R21">
+        <v>6.745807967871</v>
+      </c>
+      <c r="S21">
+        <v>0.001223151234752709</v>
+      </c>
+      <c r="T21">
+        <v>0.001360318871503026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.061537</v>
+      </c>
+      <c r="H22">
+        <v>0.184611</v>
+      </c>
+      <c r="I22">
+        <v>0.001783538329879737</v>
+      </c>
+      <c r="J22">
+        <v>0.001829322907355756</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.4715666666666666</v>
+      </c>
+      <c r="N22">
+        <v>1.4147</v>
+      </c>
+      <c r="O22">
+        <v>0.02655129238326527</v>
+      </c>
+      <c r="P22">
+        <v>0.02878977723790303</v>
+      </c>
+      <c r="Q22">
+        <v>0.02901879796666667</v>
+      </c>
+      <c r="R22">
+        <v>0.2611691817</v>
+      </c>
+      <c r="S22">
+        <v>4.735524767339752E-05</v>
+      </c>
+      <c r="T22">
+        <v>5.266579899896532E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.061537</v>
+      </c>
+      <c r="H23">
+        <v>0.184611</v>
+      </c>
+      <c r="I23">
+        <v>0.001783538329879737</v>
+      </c>
+      <c r="J23">
+        <v>0.001829322907355756</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.3304726666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.9914179999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.01860707513397334</v>
+      </c>
+      <c r="P23">
+        <v>0.02017579937064207</v>
+      </c>
+      <c r="Q23">
+        <v>0.02033629648866667</v>
+      </c>
+      <c r="R23">
+        <v>0.183026668398</v>
+      </c>
+      <c r="S23">
+        <v>3.31864317083936E-05</v>
+      </c>
+      <c r="T23">
+        <v>3.690805196292939E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.061537</v>
+      </c>
+      <c r="H24">
+        <v>0.184611</v>
+      </c>
+      <c r="I24">
+        <v>0.001783538329879737</v>
+      </c>
+      <c r="J24">
+        <v>0.001829322907355756</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.6355266666666667</v>
+      </c>
+      <c r="N24">
+        <v>1.90658</v>
+      </c>
+      <c r="O24">
+        <v>0.03578296672940263</v>
+      </c>
+      <c r="P24">
+        <v>0.03879975506202103</v>
+      </c>
+      <c r="Q24">
+        <v>0.03910840448666667</v>
+      </c>
+      <c r="R24">
+        <v>0.35197564038</v>
+      </c>
+      <c r="S24">
+        <v>6.382029271870096E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.097728073474752E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.061537</v>
+      </c>
+      <c r="H25">
+        <v>0.184611</v>
+      </c>
+      <c r="I25">
+        <v>0.001783538329879737</v>
+      </c>
+      <c r="J25">
+        <v>0.001829322907355756</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.3898975</v>
+      </c>
+      <c r="N25">
+        <v>6.779795</v>
+      </c>
+      <c r="O25">
+        <v>0.1908662465649254</v>
+      </c>
+      <c r="P25">
+        <v>0.1379718581809916</v>
+      </c>
+      <c r="Q25">
+        <v>0.2086041224575</v>
+      </c>
+      <c r="R25">
+        <v>1.251624734745</v>
+      </c>
+      <c r="S25">
+        <v>0.0003404172666288211</v>
+      </c>
+      <c r="T25">
+        <v>0.0002523950807409275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.2468015</v>
+      </c>
+      <c r="H26">
+        <v>2.493603</v>
+      </c>
+      <c r="I26">
+        <v>0.03613628004292622</v>
+      </c>
+      <c r="J26">
+        <v>0.02470928108157713</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.752908</v>
+      </c>
+      <c r="N26">
+        <v>1.505816</v>
+      </c>
+      <c r="O26">
+        <v>0.04239205579776523</v>
+      </c>
+      <c r="P26">
+        <v>0.03064402855818915</v>
+      </c>
+      <c r="Q26">
+        <v>0.9387268237620001</v>
+      </c>
+      <c r="R26">
+        <v>3.754907295048</v>
+      </c>
+      <c r="S26">
+        <v>0.001531891199903399</v>
+      </c>
+      <c r="T26">
+        <v>0.0007571919151161723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.2468015</v>
+      </c>
+      <c r="H27">
+        <v>2.493603</v>
+      </c>
+      <c r="I27">
+        <v>0.03613628004292622</v>
+      </c>
+      <c r="J27">
+        <v>0.02470928108157713</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>12.18022033333333</v>
+      </c>
+      <c r="N27">
+        <v>36.540661</v>
+      </c>
+      <c r="O27">
+        <v>0.6858003633906682</v>
+      </c>
+      <c r="P27">
+        <v>0.743618781590253</v>
+      </c>
+      <c r="Q27">
+        <v>15.1863169819305</v>
+      </c>
+      <c r="R27">
+        <v>91.117901891583</v>
+      </c>
+      <c r="S27">
+        <v>0.02478227398502576</v>
+      </c>
+      <c r="T27">
+        <v>0.01837428549185347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.2468015</v>
+      </c>
+      <c r="H28">
+        <v>2.493603</v>
+      </c>
+      <c r="I28">
+        <v>0.03613628004292622</v>
+      </c>
+      <c r="J28">
+        <v>0.02470928108157713</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.4715666666666666</v>
+      </c>
+      <c r="N28">
+        <v>1.4147</v>
+      </c>
+      <c r="O28">
+        <v>0.02655129238326527</v>
+      </c>
+      <c r="P28">
+        <v>0.02878977723790303</v>
+      </c>
+      <c r="Q28">
+        <v>0.58795002735</v>
+      </c>
+      <c r="R28">
+        <v>3.5277001641</v>
+      </c>
+      <c r="S28">
+        <v>0.0009594649370632878</v>
+      </c>
+      <c r="T28">
+        <v>0.000711374698047337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.04359631232388</v>
-      </c>
-      <c r="H19">
-        <v>1.04359631232388</v>
-      </c>
-      <c r="I19">
-        <v>0.03166685608923667</v>
-      </c>
-      <c r="J19">
-        <v>0.03166685608923667</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>3.29217910947233</v>
-      </c>
-      <c r="N19">
-        <v>3.29217910947233</v>
-      </c>
-      <c r="O19">
-        <v>0.1966517377989265</v>
-      </c>
-      <c r="P19">
-        <v>0.1966517377989265</v>
-      </c>
-      <c r="Q19">
-        <v>3.435705978155039</v>
-      </c>
-      <c r="R19">
-        <v>3.435705978155039</v>
-      </c>
-      <c r="S19">
-        <v>0.006227342280576909</v>
-      </c>
-      <c r="T19">
-        <v>0.006227342280576909</v>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.2468015</v>
+      </c>
+      <c r="H29">
+        <v>2.493603</v>
+      </c>
+      <c r="I29">
+        <v>0.03613628004292622</v>
+      </c>
+      <c r="J29">
+        <v>0.02470928108157713</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.3304726666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.9914179999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.01860707513397334</v>
+      </c>
+      <c r="P29">
+        <v>0.02017579937064207</v>
+      </c>
+      <c r="Q29">
+        <v>0.412033816509</v>
+      </c>
+      <c r="R29">
+        <v>2.472202899054</v>
+      </c>
+      <c r="S29">
+        <v>0.0006723904778210296</v>
+      </c>
+      <c r="T29">
+        <v>0.0004985294976947019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.2468015</v>
+      </c>
+      <c r="H30">
+        <v>2.493603</v>
+      </c>
+      <c r="I30">
+        <v>0.03613628004292622</v>
+      </c>
+      <c r="J30">
+        <v>0.02470928108157713</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6355266666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.90658</v>
+      </c>
+      <c r="O30">
+        <v>0.03578296672940263</v>
+      </c>
+      <c r="P30">
+        <v>0.03879975506202103</v>
+      </c>
+      <c r="Q30">
+        <v>0.7923756012900001</v>
+      </c>
+      <c r="R30">
+        <v>4.75425360774</v>
+      </c>
+      <c r="S30">
+        <v>0.001293063306500405</v>
+      </c>
+      <c r="T30">
+        <v>0.0009587140537238226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.2468015</v>
+      </c>
+      <c r="H31">
+        <v>2.493603</v>
+      </c>
+      <c r="I31">
+        <v>0.03613628004292622</v>
+      </c>
+      <c r="J31">
+        <v>0.02470928108157713</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.3898975</v>
+      </c>
+      <c r="N31">
+        <v>6.779795</v>
+      </c>
+      <c r="O31">
+        <v>0.1908662465649254</v>
+      </c>
+      <c r="P31">
+        <v>0.1379718581809916</v>
+      </c>
+      <c r="Q31">
+        <v>4.22652928784625</v>
+      </c>
+      <c r="R31">
+        <v>16.906117151385</v>
+      </c>
+      <c r="S31">
+        <v>0.006897196136612349</v>
+      </c>
+      <c r="T31">
+        <v>0.003409185425141617</v>
       </c>
     </row>
   </sheetData>
